--- a/Templates/Place Card Creation Template.xlsx
+++ b/Templates/Place Card Creation Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\COMIGHT\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C059D2-8F75-4A1E-B811-C5F6219ED21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C91EB0A-0199-4576-B1B2-394277F93455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Name</t>
+    <t>Name (List all the names one by one in this column)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John Smith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Brown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golden Corp. CEO
+Robert Miller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>......</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -80,9 +97,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -363,15 +385,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
